--- a/meta/4-2-2-1a.xlsx
+++ b/meta/4-2-2-1a.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ЦУР\ЦУР 2020\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Национальные\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="210" yWindow="450" windowWidth="15000" windowHeight="7095"/>
   </bookViews>
@@ -133,9 +138,6 @@
     <t>Форма государственной статистической отчетности № 85- К «Отчет дошкольной организации»</t>
   </si>
   <si>
-    <t xml:space="preserve">Школы независимо от формы собственности и подчиненности </t>
-  </si>
-  <si>
     <t>Отношение численности детей, посещающих дошкольные организации к численности детей в возрасте 1-6 лет по данным демографической статистики, скорректированной на численность детей 6 лет, обучающихся в школе.</t>
   </si>
   <si>
@@ -155,6 +157,9 @@
   </si>
   <si>
     <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>Дошкольные образовательные организации независимо от формы собственности</t>
   </si>
 </sst>
 </file>
@@ -290,6 +295,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -495,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -633,7 +641,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -647,7 +655,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.2">
@@ -655,7 +663,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -663,7 +671,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -677,7 +685,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -685,7 +693,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,7 +701,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -701,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
